--- a/eth_journal/root_Hours_Plan.xlsx
+++ b/eth_journal/root_Hours_Plan.xlsx
@@ -403,7 +403,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -417,7 +417,7 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -431,7 +431,7 @@
         <v>80</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/eth_journal/root_Hours_Plan.xlsx
+++ b/eth_journal/root_Hours_Plan.xlsx
@@ -31,7 +31,7 @@
     <t>Русский язык</t>
   </si>
   <si>
-    <t>2024ab</t>
+    <t>31ab</t>
   </si>
   <si>
     <t>Биология</t>
@@ -40,7 +40,7 @@
     <t>Предмет_1</t>
   </si>
   <si>
-    <t>2024аа</t>
+    <t>21аа</t>
   </si>
 </sst>
 </file>

--- a/eth_journal/root_Hours_Plan.xlsx
+++ b/eth_journal/root_Hours_Plan.xlsx
@@ -31,7 +31,7 @@
     <t>Русский язык</t>
   </si>
   <si>
-    <t>31ab</t>
+    <t>41ab</t>
   </si>
   <si>
     <t>Биология</t>
@@ -40,7 +40,7 @@
     <t>Предмет_1</t>
   </si>
   <si>
-    <t>21аа</t>
+    <t>31аа</t>
   </si>
 </sst>
 </file>
